--- a/data/element_info.xlsx
+++ b/data/element_info.xlsx
@@ -1,175 +1,417 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login_page" sheetId="1" r:id="rId1"/>
     <sheet name="organization_home_page" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="organization_user_page" sheetId="3" r:id="rId3"/>
+    <sheet name="organization_user_adduser_page" sheetId="4" r:id="rId4"/>
+    <sheet name="organization_company_page" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
+  <si>
+    <t>element_variable_name</t>
+  </si>
+  <si>
+    <t>element_name</t>
+  </si>
+  <si>
+    <t>locator_type</t>
+  </si>
+  <si>
+    <t>locator_value</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>caotao_button</t>
+  </si>
+  <si>
+    <t>版本选择按钮</t>
+  </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>element_variable_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>caotao_button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>element_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>locator_type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>locator_value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeout</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本选择按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xpath</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>//a[@id='zentao']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>username_inputbox</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户名输入框</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//input[@id='account']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>userpassword_inputbox</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>密码输入框</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//input[@name='password']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>login_button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登录按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//button[@id='submit']</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_link</t>
   </si>
   <si>
     <t>组织链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//a[@href="/zentao3/www/company/"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_link</t>
   </si>
   <si>
     <t>用户链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao3/www/company-browse.html"]</t>
+  </si>
+  <si>
+    <t>department_link</t>
   </si>
   <si>
     <t>部门链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao3/www/dept-browse.html"]</t>
+  </si>
+  <si>
+    <t>permissions_link</t>
   </si>
   <si>
     <t>权限链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao3/www/group-browse.html"]</t>
+  </si>
+  <si>
+    <t>dynamic_link</t>
   </si>
   <si>
     <t>动态链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>//a[@href="/zentao3/www/company-dynamic.html"]</t>
+  </si>
+  <si>
+    <t>company_link</t>
   </si>
   <si>
     <t>公司链接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao3/www/company-browse.html"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao3/www/dept-browse.html"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>department_link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>permissions_link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao3/www/group-browse.html"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>//a[@href="/zentao3/www/company-dynamic.html"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamic_link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>company_link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>//a[@href="/zentao3/www/company-view.html"]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_link</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>adduser_button</t>
+  </si>
+  <si>
+    <t>添加用户按钮</t>
+  </si>
+  <si>
+    <t>//div/div[3]/a[2]/i[@class="icon icon-plus"]</t>
+  </si>
+  <si>
+    <t>addusers_button</t>
+  </si>
+  <si>
+    <t>批量添加用户按钮</t>
+  </si>
+  <si>
+    <t>//a[@class="btn btn-secondary"]</t>
+  </si>
+  <si>
+    <t>selection_button</t>
+  </si>
+  <si>
+    <t>全选按钮</t>
+  </si>
+  <si>
+    <t>//div[@title="全选"]</t>
+  </si>
+  <si>
+    <t>edituser_button</t>
+  </si>
+  <si>
+    <t>编辑用户按钮</t>
+  </si>
+  <si>
+    <t>//form/table/tbody/tr[2]/td[11]/a[1]/i[@class="icon-common-edit icon-edit"]</t>
+  </si>
+  <si>
+    <t>deleteuser_button</t>
+  </si>
+  <si>
+    <t>删除用户按钮</t>
+  </si>
+  <si>
+    <t>//table/tbody/tr[3]/td[11]/a[2]/i[@class="icon-trash"]</t>
+  </si>
+  <si>
+    <t>dismissdeleteuser_button</t>
+  </si>
+  <si>
+    <t>取消删除按钮</t>
+  </si>
+  <si>
+    <t>//div/div/div/button[@class="close"]</t>
+  </si>
+  <si>
+    <t>maintenancedepartment_link</t>
+  </si>
+  <si>
+    <t>维护部门链接</t>
+  </si>
+  <si>
+    <t>//a[@class="btn btn-info btn-wide"][text()="维护部门"]</t>
+  </si>
+  <si>
+    <t>username_input</t>
+  </si>
+  <si>
+    <t>//input[@id="account"]</t>
+  </si>
+  <si>
+    <t>userpassword_input</t>
+  </si>
+  <si>
+    <t>//input[@id="password1"]</t>
+  </si>
+  <si>
+    <t>repeatpassword_input</t>
+  </si>
+  <si>
+    <t>第二次密码输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="password2"]</t>
+  </si>
+  <si>
+    <t>realname_input</t>
+  </si>
+  <si>
+    <t>真实姓名输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="realname"]</t>
+  </si>
+  <si>
+    <t>entrydate_input</t>
+  </si>
+  <si>
+    <t>入职日期输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="join"]</t>
+  </si>
+  <si>
+    <t>clickpage_click</t>
+  </si>
+  <si>
+    <t>页面空白处</t>
+  </si>
+  <si>
+    <t>//table[@class="table table-form"]</t>
+  </si>
+  <si>
+    <t>Jobchoice_click</t>
+  </si>
+  <si>
+    <t>职位选择</t>
+  </si>
+  <si>
+    <t>//option[@value="qa"]</t>
+  </si>
+  <si>
+    <t>rightsgroup_selected_click</t>
+  </si>
+  <si>
+    <t>权限分组输入框选中</t>
+  </si>
+  <si>
+    <t>//div[@id="group_chosen"]</t>
+  </si>
+  <si>
+    <t>rightsgroup_click</t>
+  </si>
+  <si>
+    <t>权限分组选择</t>
+  </si>
+  <si>
+    <t>//div[@class="chosen-drop chosen-auto-max-width chosen-no-wrap in"]/ul/li[@title="研发"]</t>
+  </si>
+  <si>
+    <t>email_input</t>
+  </si>
+  <si>
+    <t>邮箱输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="email"]</t>
+  </si>
+  <si>
+    <t>codeaccount_input</t>
+  </si>
+  <si>
+    <t>源代码帐号输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="commiter"]</t>
+  </si>
+  <si>
+    <t>gender_button</t>
+  </si>
+  <si>
+    <t>性别按钮</t>
+  </si>
+  <si>
+    <t>//input[@id="genderf"]</t>
+  </si>
+  <si>
+    <t>passwordchecking_input</t>
+  </si>
+  <si>
+    <t>密码校验输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="verifyPassword"]</t>
+  </si>
+  <si>
+    <t>save_button</t>
+  </si>
+  <si>
+    <t>保存按钮</t>
+  </si>
+  <si>
+    <t>//button[@id="submit"]</t>
+  </si>
+  <si>
+    <t>frame_switch</t>
+  </si>
+  <si>
+    <t>框架切入</t>
+  </si>
+  <si>
+    <t>//div/div/div[2]/iframe[@id="iframe-triggerModal"]</t>
+  </si>
+  <si>
+    <t>editcompany_click</t>
+  </si>
+  <si>
+    <t>编辑公司按钮</t>
+  </si>
+  <si>
+    <t>//a[@id="editCompany"]</t>
+  </si>
+  <si>
+    <t>companyname_input</t>
+  </si>
+  <si>
+    <t>公司名称输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="name"]</t>
+  </si>
+  <si>
+    <t>phone_input</t>
+  </si>
+  <si>
+    <t>联系方式输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="phone"]</t>
+  </si>
+  <si>
+    <t>fax_input</t>
+  </si>
+  <si>
+    <t>传真输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="fax"]</t>
+  </si>
+  <si>
+    <t>address_input</t>
+  </si>
+  <si>
+    <t>地址输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="address"]</t>
+  </si>
+  <si>
+    <t>zipcode_input</t>
+  </si>
+  <si>
+    <t>邮政编码输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="zipcode"]</t>
+  </si>
+  <si>
+    <t>website_input</t>
+  </si>
+  <si>
+    <t>官网地址输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="website"]</t>
+  </si>
+  <si>
+    <t>backyard_input</t>
+  </si>
+  <si>
+    <t>内网地址输入框</t>
+  </si>
+  <si>
+    <t>//input[@id="backyard"]</t>
+  </si>
+  <si>
+    <t>anonymous_click</t>
+  </si>
+  <si>
+    <t>匿名登录按钮</t>
+  </si>
+  <si>
+    <t>//input[@id="guest0"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,30 +433,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -237,17 +794,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -255,14 +1060,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -553,280 +1402,1007 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="30.6640625" customWidth="1"/>
+    <col min="1" max="5" width="30.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="19.95" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="19.95" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.775" customWidth="1"/>
+    <col min="2" max="2" width="22.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="56.775" customWidth="1"/>
+    <col min="5" max="5" width="16.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29.2166666666667" customWidth="1"/>
+    <col min="2" max="3" width="20.775" customWidth="1"/>
+    <col min="4" max="4" width="92.1083333333333" customWidth="1"/>
+    <col min="5" max="12" width="20.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" ht="49.95" customHeight="1" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" ht="49.95" customHeight="1"/>
+    <row r="13" ht="49.95" customHeight="1"/>
+    <row r="14" ht="49.95" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A1:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29.2166666666667" customWidth="1"/>
+    <col min="2" max="3" width="20.775" customWidth="1"/>
+    <col min="4" max="4" width="97.3333333333333" customWidth="1"/>
+    <col min="5" max="12" width="20.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" ht="25.05" customHeight="1" spans="1:5">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" ht="25.05" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="97.875" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>